--- a/malfiler/Studiebarometeret veiledningsfane.xlsx
+++ b/malfiler/Studiebarometeret veiledningsfane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B1E6F1-149E-402C-AA17-804FD0D2AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{87B1E6F1-149E-402C-AA17-804FD0D2AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4953FC93-BA31-48E3-ACC4-F2EE48C89516}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forklaring" sheetId="5" r:id="rId1"/>
@@ -109,6 +109,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFA65C"/>
+      <color rgb="FF98DCAE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -127,13 +133,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -148,8 +154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="200025"/>
-          <a:ext cx="7648575" cy="6772276"/>
+          <a:off x="619125" y="200026"/>
+          <a:ext cx="7648575" cy="6496050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -211,11 +217,34 @@
           <a:pPr lvl="1"/>
           <a:r>
             <a:rPr lang="nb-NO" baseline="0"/>
-            <a:t>- forenkle ved å redusere antall spørsmål.</a:t>
+            <a:t>- forenkle ved å redusere antall spørsmål</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="nb-NO" baseline="0"/>
+            <a:t>- markere sterke og svake resultater (se boksen Fargekoding)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" lvl="1" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="nb-NO" baseline="0"/>
             <a:t>- markere hvilke endringer fra forrige år som er </a:t>
@@ -262,28 +291,25 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>). Statistisk signifikante forbedringer er markert med grønn ramme, og statistisk signifikante svekkelser</a:t>
+            <a:t>). </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="nb-NO" sz="1100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nb-NO" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>er markert med rød ramme.</a:t>
-          </a:r>
+            <a:t>(se boksen Fargekoding)</a:t>
+          </a:r>
+          <a:endParaRPr lang="nb-NO" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr lvl="1"/>
@@ -405,11 +431,15 @@
           <a:pPr lvl="0"/>
           <a:r>
             <a:rPr lang="nb-NO" b="0" baseline="0"/>
-            <a:t>Det kan ofte være lett å tillegge for stor vekt til endringer mellom år. For å lette tolkingen av resultatene, har vi gjort sammenligninger av resultatene mot tallene fra året før, og testet om endringene er statistisk signifikante. Når endringen er liten og/eller det er få svarende, vil det være sannsynlig at endringen kan være tilfeldig. Når det er lite sannsynlig at endringen har oppstått tilfeldig, har vi markert cellene i regnearket med grønn ramme for positiv endring og rød ramme for negativ endring. Dette sier likevel ikke at endringen </a:t>
+            <a:t>Det kan ofte være lett å tillegge for stor vekt til endringer mellom år. For å lette tolkingen av resultatene, har vi gjort sammenligninger av resultatene mot tallene fra året før, og testet om endringene er statistisk signifikante. Når endringen er liten og/eller det er få svarende, vil det være sannsynlig at endringen kan være tilfeldig. Se boksen Fargekoding for forklaring på hvordan vi har markert endringer. Selv om en endring er statistisk signifikant, er det viktig å være bevisst på at dere selv må vurdere om endringen </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" b="0" i="0" baseline="0"/>
+            <a:t>er</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="nb-NO" b="0" i="1" baseline="0"/>
-            <a:t>er </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="nb-NO" b="0" i="0" baseline="0"/>
@@ -421,7 +451,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ntlig, det må dere vurdere selv. Vi håper likevel dette kan spare dere noen diskusjoner om endringer som like gjerne kan skyldes t</a:t>
+            <a:t>ntlig. Vi håper likevel dette kan spare dere noen diskusjoner om endringer som like gjerne kan skyldes t</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="nb-NO" b="0" i="0" baseline="0"/>
@@ -497,6 +527,558 @@
             <a:rPr lang="nb-NO" b="0" baseline="0"/>
             <a:t>4. Resultatet av signifikanstest av differansen, oppgitt som p-verdi.</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803D23C6-C66F-407D-91DD-7B612C937191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="2105025"/>
+          <a:ext cx="7315200" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1600" b="1"/>
+            <a:t>Fargekoding</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" b="0" baseline="0"/>
+            <a:t>De fleste av spørsmålene er på en femdelt skala der 5 er best.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" b="0" baseline="0"/>
+            <a:t>Resultat som er over 4 er uthevet med en grønnlig bakgrunnsfarge:  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" b="0" baseline="0"/>
+            <a:t>Resultat som er under 3 er uthevet med en oransje bakgrunnsfarge: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" b="0" baseline="0"/>
+            <a:t>Statistisk signifikante endringer er markert med ramme.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" b="0" baseline="0"/>
+            <a:t>Positive, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>statistisk signifikante endringer har heltrukket ramme: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Negative, statistisk signifikante endringer har stiplet ramme: </a:t>
+          </a:r>
+          <a:endParaRPr lang="nb-NO">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Utdanninger som har tidsbruk over 34,5 timer per uke er uthevet med en grønnlig bakgrunnsfarge:  </a:t>
+          </a:r>
+          <a:endParaRPr lang="nb-NO">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For deltidsutdanninger, er det gjort en justering basert på progresjonen i studiet, slik at et studium på halvfart vil bli markert grønt dersom studentene i snitt bruker 17,25 timer per uke.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D69EEE-C87A-C2FD-446B-416CC2041D26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="2924176"/>
+          <a:ext cx="733425" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="98DCAE"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BC0444-8CEA-E952-965C-5CB86CCD2DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="3124201"/>
+          <a:ext cx="733425" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFA65C"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A5EE5E-4B3D-5F8B-728F-A40EA29845F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="3771901"/>
+          <a:ext cx="733425" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A26B252-E8AB-FDE5-0709-749F8A6E638E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="3971926"/>
+          <a:ext cx="733425" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03ECC54D-06CC-2881-3619-B0AC988AFA1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14344650" y="4286251"/>
+          <a:ext cx="733425" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="98DCAE"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -787,7 +1369,7 @@
   <dimension ref="O3:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,18 +1411,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,6 +1637,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9130C2-A8A7-4541-996D-6F4A73B99E8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{884A80B1-080C-4253-8901-3F7970AFCECE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1067,14 +1657,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="e85d5254-de39-424c-ad23-0aece8e281e8"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9130C2-A8A7-4541-996D-6F4A73B99E8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/malfiler/Studiebarometeret veiledningsfane.xlsx
+++ b/malfiler/Studiebarometeret veiledningsfane.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{87B1E6F1-149E-402C-AA17-804FD0D2AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4953FC93-BA31-48E3-ACC4-F2EE48C89516}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{87B1E6F1-149E-402C-AA17-804FD0D2AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C03B08C9-FD7E-4184-BC8A-1673159ABBE5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="nb-NO" b="0" baseline="0"/>
-            <a:t>De fleste av spørsmålene er på en femdelt skala der 5 er best.</a:t>
+            <a:t>De fleste av spørsmålene er på en femdelt skala der 5 er best. I spørsmål med annen skala, fremgår det av spørsmålsteksten.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1411,18 +1411,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1637,14 +1637,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9130C2-A8A7-4541-996D-6F4A73B99E8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{884A80B1-080C-4253-8901-3F7970AFCECE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1657,6 +1649,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="e85d5254-de39-424c-ad23-0aece8e281e8"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9130C2-A8A7-4541-996D-6F4A73B99E8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/malfiler/Studiebarometeret veiledningsfane.xlsx
+++ b/malfiler/Studiebarometeret veiledningsfane.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{87B1E6F1-149E-402C-AA17-804FD0D2AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C03B08C9-FD7E-4184-BC8A-1673159ABBE5}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{87B1E6F1-149E-402C-AA17-804FD0D2AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7069678F-AFB4-4516-9C0B-CA7B8FA8CE45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forklaring" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -138,8 +138,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -155,7 +155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="619125" y="200026"/>
-          <a:ext cx="7648575" cy="6496050"/>
+          <a:ext cx="7648575" cy="5029199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -310,111 +310,6 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:endParaRPr lang="nb-NO" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="nb-NO" b="1" baseline="0"/>
-            <a:t>Utvalg av spørsmål</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="nb-NO" baseline="0"/>
-            <a:t>For å redusere omfanget av variabler, har vi valgt å ikke ta med spørsmål om disse temaene:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="nb-NO" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nb-NO" baseline="0"/>
-            <a:t>Vurderingsformer</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="nb-NO" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nb-NO" baseline="0"/>
-            <a:t>Om studieprogrammet er inspirerende</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="nb-NO" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nb-NO" baseline="0"/>
-            <a:t>Digitale verktøy </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="nb-NO" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nb-NO" baseline="0"/>
-            <a:t>Yrkesrelevans</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="nb-NO" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="nb-NO" baseline="0"/>
-            <a:t>Bakgrunnen for utvalget er i stor grad analyser av hvilke variabler som i størst grad påvirker studentenes tilfredshet alt i alt. Se lenke til rapporten "Hva er viktigst for overordnet studenttilfredshet?" til høyre. Resultater for disse variablene finnes i rapportene fra Rambøll, og dersom dere ønsker å få utvidede presentasjoner kan dere kontakte oss på e-post (utdanningskvalitet@oslomet.no). </a:t>
-          </a:r>
         </a:p>
         <a:p>
           <a:pPr lvl="0"/>
@@ -725,7 +620,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Utdanninger som har tidsbruk over 34,5 timer per uke er uthevet med en grønnlig bakgrunnsfarge:  </a:t>
+            <a:t>Utdanninger som har tidsbruk over 31 timer per uke er uthevet med en grønnlig bakgrunnsfarge:  </a:t>
           </a:r>
           <a:endParaRPr lang="nb-NO">
             <a:effectLst/>
@@ -742,7 +637,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>For deltidsutdanninger, er det gjort en justering basert på progresjonen i studiet, slik at et studium på halvfart vil bli markert grønt dersom studentene i snitt bruker 17,25 timer per uke.</a:t>
+            <a:t>For deltidsutdanninger, er det gjort en justering basert på progresjonen i studiet, slik at et studium på halvfart vil bli markert grønt dersom studentene i snitt bruker 15,5 timer per uke.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1368,9 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A8E841-48A9-41AC-8FE0-C3D19828FAFD}">
   <dimension ref="O3:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1417,15 +1310,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D8082E96E66F9E4AA1333E6EDE182CB1" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="64b56671b1d17ec49761f1499d4e0f96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="351bd4f1-4840-4e36-b6be-536d93b1fe71" xmlns:ns3="e85d5254-de39-424c-ad23-0aece8e281e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e0c9f1faf86abbc238c93ea22ecb87a4" ns2:_="" ns3:_="">
     <xsd:import namespace="351bd4f1-4840-4e36-b6be-536d93b1fe71"/>
@@ -1636,6 +1520,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{884A80B1-080C-4253-8901-3F7970AFCECE}">
   <ds:schemaRefs>
@@ -1654,14 +1547,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9130C2-A8A7-4541-996D-6F4A73B99E8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79CE2125-B595-44AA-B186-CE5950FC787A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1678,4 +1563,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9130C2-A8A7-4541-996D-6F4A73B99E8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>